--- a/wage calculator/Far Finer Wage Calculator.xlsx
+++ b/wage calculator/Far Finer Wage Calculator.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="calc" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="calc" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -110,15 +110,14 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="\ * #,##0.00\ ;\ * \(#,##0.00\);\ * \-00\ ;\ @\ "/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,33 +137,29 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="15"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -266,7 +261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,7 +282,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -392,6 +387,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,181 +474,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1f497d"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="eeece1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f81bd"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -658,7 +482,7 @@
   <dimension ref="B1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,21 +491,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="13.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="17.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -692,22 +516,22 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
@@ -730,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13" t="n">
         <v>2080</v>
       </c>
@@ -747,28 +571,29 @@
       </c>
       <c r="F8" s="17" t="n">
         <f aca="false">D14</f>
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="G8" s="18" t="n">
-        <f aca="false">C8*120</f>
-        <v>10200</v>
+        <f aca="false">H14</f>
+        <v>3400</v>
       </c>
       <c r="H8" s="9" t="n">
         <f aca="false">(C8*B8)-E8-F8-G8</f>
-        <v>158780</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168980</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
@@ -776,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -796,9 +621,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C14" s="15" t="n">
         <f aca="false">C8</f>
@@ -806,10 +631,10 @@
       </c>
       <c r="D14" s="17" t="n">
         <f aca="false">B14*C14</f>
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="F14" s="23" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G14" s="24" t="n">
         <f aca="false">C8</f>
@@ -817,9 +642,10 @@
       </c>
       <c r="H14" s="25" t="n">
         <f aca="false">F14*G14</f>
-        <v>10200</v>
-      </c>
-    </row>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="26" t="s">
         <v>14</v>
@@ -840,11 +666,11 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="31" t="s">
         <v>16</v>
       </c>
@@ -853,10 +679,10 @@
       <c r="F19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="32"/>
+      <c r="I19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
@@ -875,9 +701,9 @@
       <c r="H20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="s">
         <v>21</v>
       </c>
@@ -895,12 +721,12 @@
         <f aca="false">C21/12</f>
         <v>45</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
@@ -917,12 +743,12 @@
         <f aca="false">C22/12</f>
         <v>0</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13" t="s">
         <v>23</v>
       </c>
@@ -940,12 +766,12 @@
         <f aca="false">C23/12</f>
         <v>40</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
@@ -963,18 +789,20 @@
         <f aca="false">C24/12</f>
         <v>4</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="33" t="s">
+      <c r="I24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="33" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="34" t="s">
         <v>26</v>
       </c>
     </row>
